--- a/from_r/DATA.xlsx
+++ b/from_r/DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,533 +441,545 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Страх - почему он мешает на пути к мечте</t>
+          <t>Намерения - стоит ли делиться ими с окружающими</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/strah-pochemu-on-meshaet-na-puti-k-mechte-6039340f49b4e728905beb55</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/namereniia-stoit-li-delitsia-imi-s-okrujaiuscimi-603a5140732f3c7f627b33be</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Мотивация - как преодолеть лень и усвоить новую информацию, чтобы стать успешным</t>
+          <t>Страх - почему он мешает на пути к мечте</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/motivaciia-kak-preodolet-len-i-usvoit-novuiu-informaciiu-chtoby-stat-uspeshnym-60379764109f4c102e816a54</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>В прошлой статье мы говорили о soft skills и о том, какие навыки нужно</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/strah-pochemu-on-meshaet-na-puti-k-mechte-6039340f49b4e728905beb55</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Энергия - зачем она нужна, как её создавать, сохранять и эффективно тратить</t>
+          <t>Мотивация - как преодолеть лень и усвоить новую информацию, чтобы стать успешным</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/energiia-zachem-ona-nujna-kak-ee-sozdavat-sohraniat-i-effektivno-tratit-60366ad9084cc3452484ad62</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/motivaciia-kak-preodolet-len-i-usvoit-novuiu-informaciiu-chtoby-stat-uspeshnym-60379764109f4c102e816a54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Энергия пронизывает пространство, нас и все вокруг. Зная, как управлять энергией, вы можете строить</t>
+          <t>В прошлой статье мы говорили о soft skills и о том, какие навыки нужно</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Тест на уровень вашей энергии</t>
+          <t>Энергия - зачем она нужна, как её создавать, сохранять и эффективно тратить</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/test-na-uroven-vashei-energii-603674c9ebccc7516111d72a</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/energiia-zachem-ona-nujna-kak-ee-sozdavat-sohraniat-i-effektivno-tratit-60366ad9084cc3452484ad62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Человек наполняется разной энергией, а потом её опустошает. Он пытается получить другие выгоды за</t>
+          <t>Энергия пронизывает пространство, нас и все вокруг. Зная, как управлять энергией, вы можете строить</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Soft skills - что это такое и зачем они нужны</t>
+          <t>Тест на уровень вашей энергии</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/soft-skills-chto-eto-takoe-i-zachem-oni-nujny-6034e5d5084cc34524048ed5</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/test-na-uroven-vashei-energii-603674c9ebccc7516111d72a</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Человек наполняется разной энергией, а потом её опустошает. Он пытается получить другие выгоды за</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Проблемы - почему мы преувеличиваем их значение и что с этим делать</t>
+          <t>Soft skills - что это такое и зачем они нужны</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/problemy-pochemu-my-preuvelichivaem-ih-znachenie-i-chto-s-etim-delat-6033c09ea332dd7373ef7d51</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Почему наши проблемы кажутся нам самыми важными? «Я не могу не</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/soft-skills-chto-eto-takoe-i-zachem-oni-nujny-6034e5d5084cc34524048ed5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Мозг - почему его необходимо развивать на протяжении всей жизни</t>
+          <t>Проблемы - почему мы преувеличиваем их значение и что с этим делать</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-pochemu-ego-neobhodimo-razvivat-na-protiajenii-vsei-jizni-6032c4a6756eeb31f0d26a71</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/problemy-pochemu-my-preuvelichivaem-ih-znachenie-i-chto-s-etim-delat-6033c09ea332dd7373ef7d51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Человеческий мозг уникален, он впитывает всё новое, как губка. Все</t>
+          <t>Почему наши проблемы кажутся нам самыми важными? «Я не могу не</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Настроение - что это такое, от чего оно зависит и как на него влиять</t>
+          <t>Мозг - почему его необходимо развивать на протяжении всей жизни</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nastroenie-chto-eto-takoe-ot-chego-ono-zavisit-i-kak-na-nego-vliiat-6030edf3756eeb31f01efe3b</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-pochemu-ego-neobhodimo-razvivat-na-protiajenii-vsei-jizni-6032c4a6756eeb31f0d26a71</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Само по себе наше настроение (не больное, а нормальное) - это, в общем</t>
+          <t>Человеческий мозг уникален, он впитывает всё новое, как губка. Все</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Отношения - как найти «своего» человека и построить счастливые отношения ⠀</t>
+          <t>Настроение - что это такое, от чего оно зависит и как на него влиять</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-kak-naiti-svoego-cheloveka-i-postroit-schastlivye-otnosheniia--602f867affa2d86ae458d81d</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nastroenie-chto-eto-takoe-ot-chego-ono-zavisit-i-kak-na-nego-vliiat-6030edf3756eeb31f01efe3b</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Казалось бы, в эпоху социальных сетей и приложений для знакомств</t>
+          <t>Само по себе наше настроение (не больное, а нормальное) - это, в общем</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Желания - как понять, чего мы хотим</t>
+          <t>Отношения - как найти «своего» человека и построить счастливые отношения ⠀</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/jelaniia-kak-poniat-chego-my-hotim-602ea4efffa2d86ae44a60b3</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-kak-naiti-svoego-cheloveka-i-postroit-schastlivye-otnosheniia--602f867affa2d86ae458d81d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Казалось бы, в эпоху социальных сетей и приложений для знакомств</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Мозг - как им управлять, чтобы добиться желаемого</t>
+          <t>Желания - как понять, чего мы хотим</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-kak-im-upravliat-chtoby-dobitsia-jelaemogo-602d1bef3ad6ee787c6777a2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Наш мозг так устроен, если новую информацию не начать внедрять в</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/jelaniia-kak-poniat-chego-my-hotim-602ea4efffa2d86ae44a60b3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Доверие - что это такое и как ему научиться</t>
+          <t>Мозг - как им управлять, чтобы добиться желаемого</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/doverie-chto-eto-takoe-i-kak-emu-nauchitsia-602ba9938e2e533749cdacf8</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-kak-im-upravliat-chtoby-dobitsia-jelaemogo-602d1bef3ad6ee787c6777a2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Наш мозг так устроен, если новую информацию не начать внедрять в</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Амбиции - как их реализовать</t>
+          <t>Доверие - что это такое и как ему научиться</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ambicii-kak-ih-realizovat-602ac70220b7ca228d0e6dee</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Если вы спросите человека, почему он не пытается добиться успеха в своей работе (не делает то, что может, с тем</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/doverie-chto-eto-takoe-i-kak-emu-nauchitsia-602ba9938e2e533749cdacf8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Перемены - почему мы их боимся и как с этим бороться</t>
+          <t>Амбиции - как их реализовать</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/peremeny-pochemu-my-ih-boimsia-i-kak-s-etim-borotsia-60294041b498705a81dab3cd</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ambicii-kak-ih-realizovat-602ac70220b7ca228d0e6dee</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Если вы спросите человека, почему он не пытается добиться успеха в своей работе (не делает то, что может, с тем</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Неуверенность - причина её появления и как с этим бороться</t>
+          <t>Перемены - почему мы их боимся и как с этим бороться</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/neuverennost-prichina-ee-poiavleniia-i-kak-s-etim-borotsia-60291bc70454f6146a3eda52</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Как быть уверенным в себе, если боишься всего нового, а больше всего</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/peremeny-pochemu-my-ih-boimsia-i-kak-s-etim-borotsia-60294041b498705a81dab3cd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Мечта - что мешает и где взять ресурсы</t>
+          <t>Неуверенность - причина её появления и как с этим бороться</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mechta-chto-meshaet-i-gde-vziat-resursy-602822ba241d462d4472d85b</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/neuverennost-prichina-ee-poiavleniia-i-kak-s-etim-borotsia-60291bc70454f6146a3eda52</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>В нашей жизни есть то, что мы хотим приобрести, и то, от чего мы хотим избавиться. Первое мы обычно</t>
+          <t>Как быть уверенным в себе, если боишься всего нового, а больше всего</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Отношения - это работа</t>
+          <t>Мечта - что мешает и где взять ресурсы</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-eto-rabota-6027fd04c219c97e32267a84</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mechta-chto-meshaet-i-gde-vziat-resursy-602822ba241d462d4472d85b</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Наше отношение к любви может быть легкомысленным. 1. Нам может казаться, что любовь – это так</t>
+          <t>В нашей жизни есть то, что мы хотим приобрести, и то, от чего мы хотим избавиться. Первое мы обычно</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Фрирайтинг - что это такое и зачем он нужен</t>
+          <t>Отношения - это работа</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/friraiting-chto-eto-takoe-i-zachem-on-nujen-602669710454f6146a82946b</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-eto-rabota-6027fd04c219c97e32267a84</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Наше отношение к любви может быть легкомысленным. 1. Нам может казаться, что любовь – это так</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Прокрастинация – что это такое и как с ней бороться</t>
+          <t>Фрирайтинг - что это такое и зачем он нужен</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/prokrastinaciia--chto-eto-takoe-i-kak-s-nei-borotsia-6026aba1241d462d44608bff</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/friraiting-chto-eto-takoe-i-zachem-on-nujen-602669710454f6146a82946b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Почему необходимо мечтать</t>
+          <t>Прокрастинация – что это такое и как с ней бороться</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pochemu-neobhodimo-mechtat-60254309fa0bd9159a61070c</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Если вы о чем-то мечтаете, у вас есть всё, чтобы это получить. Если это ваше истинное желание, не</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/prokrastinaciia--chto-eto-takoe-i-kak-s-nei-borotsia-6026aba1241d462d44608bff</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Как повысить самооценку</t>
+          <t>Почему необходимо мечтать</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kak-povysit-samoocenku-60257e29fa0bd9159adce879</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pochemu-neobhodimo-mechtat-60254309fa0bd9159a61070c</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Самооценки, как некой устойчивой величины, не существует. Мы по-разному думаем о себе в разных</t>
+          <t>Если вы о чем-то мечтаете, у вас есть всё, чтобы это получить. Если это ваше истинное желание, не</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Семь основных шагов, чтобы полюбить свою работу</t>
+          <t>Как повысить самооценку</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/sem-osnovnyh-shagov-chtoby-poliubit-svoiu-rabotu-6023e72853b5a470dc7ab929</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kak-povysit-samoocenku-60257e29fa0bd9159adce879</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Успеха в работе можно добиться, только отдав все силы. Надо быть</t>
+          <t>Самооценки, как некой устойчивой величины, не существует. Мы по-разному думаем о себе в разных</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Два основных принципа, чтобы быть успешным</t>
+          <t>Семь основных шагов, чтобы полюбить свою работу</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/dva-osnovnyh-principa-chtoby-byt-uspeshnym-60229415064ec935186a855f</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/sem-osnovnyh-shagov-chtoby-poliubit-svoiu-rabotu-6023e72853b5a470dc7ab929</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Успеха в работе можно добиться, только отдав все силы. Надо быть</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Нырнуть в неизвестность с разбега</t>
+          <t>Два основных принципа, чтобы быть успешным</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nyrnut-v-neizvestnost-s-razbega-6022ea169eeef76a6908abd8</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/dva-osnovnyh-principa-chtoby-byt-uspeshnym-60229415064ec935186a855f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Шесть признаков успешного человека</t>
+          <t>Нырнуть в неизвестность с разбега</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/shest-priznakov-uspeshnogo-cheloveka-6022aa29064ec935189ed6d4</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>"Люди зачастую полагают, что, то, насколько они успешны, зависит от количества заработанных денег. На</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nyrnut-v-neizvestnost-s-razbega-6022ea169eeef76a6908abd8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Счастье быть услышанным и понятым</t>
+          <t>Шесть признаков успешного человека</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/schaste-byt-uslyshannym-i-poniatym-602175a3390eb32b9bfac275</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/shest-priznakov-uspeshnogo-cheloveka-6022aa29064ec935189ed6d4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"Люди зачастую полагают, что, то, насколько они успешны, зависит от количества заработанных денег. На</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Какими возможностями мы обладаем</t>
+          <t>Счастье быть услышанным и понятым</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kakimi-vozmojnostiami-my-obladaem-60214dececcec86b33aded5b</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/schaste-byt-uslyshannym-i-poniatym-602175a3390eb32b9bfac275</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Три основных принципа в достижении счастья</t>
+          <t>Какими возможностями мы обладаем</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-principa-v-dostijenii-schastia-6020398253bb652e6ad2cd2d</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kakimi-vozmojnostiami-my-obladaem-60214dececcec86b33aded5b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Поверь в себя</t>
+          <t>Три основных принципа в достижении счастья</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pover-v-sebia-60205d34d96a1a50b8d584fa</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Как мы думаем о своей жизни, такой она и становится. Если мы думаем, что наша жизнь прекрасна, она действительно становится</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-principa-v-dostijenii-schastia-6020398253bb652e6ad2cd2d</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Три основных правила к душевному спокойствию</t>
+          <t>Поверь в себя</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-pravila-k-dushevnomu-spokoistviiu-601fe03a53bb652e6a1ce0e3</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pover-v-sebia-60205d34d96a1a50b8d584fa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Преодолеть невроз непросто. Нужно понять, как действовать и куда</t>
+          <t>Как мы думаем о своей жизни, такой она и становится. Если мы думаем, что наша жизнь прекрасна, она действительно становится</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Переживания: "+" или "-"</t>
+          <t>Три основных правила к душевному спокойствию</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/perejivaniia--ili--601fc4ccd96a1a50b8aea811</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-pravila-k-dushevnomu-spokoistviiu-601fe03a53bb652e6a1ce0e3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Переживания - это сильная эмоция, которая бывает как с положительным, так и с отрицательным зарядом</t>
+          <t>Преодолеть невроз непросто. Нужно понять, как действовать и куда</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Понимаете ли вы свои эмоции?</t>
+          <t>Переживания: "+" или "-"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ponimaete-li-vy-svoi-emocii-601ed6a05fadcc22a95770fb</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/perejivaniia--ili--601fc4ccd96a1a50b8aea811</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>У всех есть чувства, но не все их знают и понимают. И в этом проблема. Мы не испытываем эмоций специально</t>
+          <t>Переживания - это сильная эмоция, которая бывает как с положительным, так и с отрицательным зарядом</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>За ширмой тревоги</t>
+          <t>Понимаете ли вы свои эмоции?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/za-shirmoi-trevogi-601ec7d7f2a56f0eaa155661</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ponimaete-li-vy-svoi-emocii-601ed6a05fadcc22a95770fb</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Из чего состоит тревога? Из неуверенности в себе? Из детства? Давайте разбираться! Тревога бывает разной. Очень сильной и яркой. Мы её</t>
+          <t>У всех есть чувства, но не все их знают и понимают. И в этом проблема. Мы не испытываем эмоций специально</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Вещи не бывают хорошими или плохими, такими их делает наше отношение к ним</t>
+          <t>За ширмой тревоги</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/vesci-ne-byvaiut-horoshimi-ili-plohimi-takimi-ih-delaet-nashe-otnoshenie-k-nim-601e8790f2a56f0eaa9e0463</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/za-shirmoi-trevogi-601ec7d7f2a56f0eaa155661</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Все, что мы считаем «трагедиями», «катастрофами», «концом света», по</t>
+          <t>Из чего состоит тревога? Из неуверенности в себе? Из детства? Давайте разбираться! Тревога бывает разной. Очень сильной и яркой. Мы её</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Вещи не бывают хорошими или плохими, такими их делает наше отношение к ним</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/vesci-ne-byvaiut-horoshimi-ili-plohimi-takimi-ih-delaet-nashe-otnoshenie-k-nim-601e8790f2a56f0eaa9e0463</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Все, что мы считаем «трагедиями», «катастрофами», «концом света», по</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Начни с себя</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nachni-s-sebia-601d9bee86f4e2220810bbad</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Считается, что отношения - это тяжелая работа! На самом деле, ваши отношения зависят от вас. А тяжело вам или нет работать над собой — это</t>
         </is>

--- a/from_r/DATA.xlsx
+++ b/from_r/DATA.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,559 +429,576 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>desc</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>url</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>desc</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Намерения - стоит ли делиться ими с окружающими</t>
+          <t>Эмоции – что делать, чтобы оставаться самим собой</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/namereniia-stoit-li-delitsia-imi-s-okrujaiuscimi-603a5140732f3c7f627b33be</t>
+          <t>Существуют эмоции, которые мешают нам быть с другими самим собой. Для</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/emocii--chto-delat-chtoby-ostavatsia-samim-soboi-603ba7ed82fc21754dab427f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Страх - почему он мешает на пути к мечте</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/strah-pochemu-on-meshaet-na-puti-k-mechte-6039340f49b4e728905beb55</t>
+          <t>Намерения - стоит ли делиться ими с окружающими</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/namereniia-stoit-li-delitsia-imi-s-okrujaiuscimi-603a5140732f3c7f627b33be</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Мотивация - как преодолеть лень и усвоить новую информацию, чтобы стать успешным</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/motivaciia-kak-preodolet-len-i-usvoit-novuiu-informaciiu-chtoby-stat-uspeshnym-60379764109f4c102e816a54</t>
+          <t>Страх - почему он мешает на пути к мечте</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>В прошлой статье мы говорили о soft skills и о том, какие навыки нужно</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/strah-pochemu-on-meshaet-na-puti-k-mechte-6039340f49b4e728905beb55</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Энергия - зачем она нужна, как её создавать, сохранять и эффективно тратить</t>
+          <t>Мотивация - как преодолеть лень и усвоить новую информацию, чтобы стать успешным</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/energiia-zachem-ona-nujna-kak-ee-sozdavat-sohraniat-i-effektivno-tratit-60366ad9084cc3452484ad62</t>
+          <t>В прошлой статье мы говорили о soft skills и о том, какие навыки нужно</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Энергия пронизывает пространство, нас и все вокруг. Зная, как управлять энергией, вы можете строить</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/motivaciia-kak-preodolet-len-i-usvoit-novuiu-informaciiu-chtoby-stat-uspeshnym-60379764109f4c102e816a54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Тест на уровень вашей энергии</t>
+          <t>Энергия - зачем она нужна, как её создавать, сохранять и эффективно тратить</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/test-na-uroven-vashei-energii-603674c9ebccc7516111d72a</t>
+          <t>Энергия пронизывает пространство, нас и все вокруг. Зная, как управлять энергией, вы можете строить</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Человек наполняется разной энергией, а потом её опустошает. Он пытается получить другие выгоды за</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/energiia-zachem-ona-nujna-kak-ee-sozdavat-sohraniat-i-effektivno-tratit-60366ad9084cc3452484ad62</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Soft skills - что это такое и зачем они нужны</t>
+          <t>Тест на уровень вашей энергии</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/soft-skills-chto-eto-takoe-i-zachem-oni-nujny-6034e5d5084cc34524048ed5</t>
+          <t>Человек наполняется разной энергией, а потом её опустошает. Он пытается получить другие выгоды за</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/test-na-uroven-vashei-energii-603674c9ebccc7516111d72a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Проблемы - почему мы преувеличиваем их значение и что с этим делать</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/problemy-pochemu-my-preuvelichivaem-ih-znachenie-i-chto-s-etim-delat-6033c09ea332dd7373ef7d51</t>
+          <t>Soft skills - что это такое и зачем они нужны</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Почему наши проблемы кажутся нам самыми важными? «Я не могу не</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/soft-skills-chto-eto-takoe-i-zachem-oni-nujny-6034e5d5084cc34524048ed5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Мозг - почему его необходимо развивать на протяжении всей жизни</t>
+          <t>Проблемы - почему мы преувеличиваем их значение и что с этим делать</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-pochemu-ego-neobhodimo-razvivat-na-protiajenii-vsei-jizni-6032c4a6756eeb31f0d26a71</t>
+          <t>Почему наши проблемы кажутся нам самыми важными? «Я не могу не</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Человеческий мозг уникален, он впитывает всё новое, как губка. Все</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/problemy-pochemu-my-preuvelichivaem-ih-znachenie-i-chto-s-etim-delat-6033c09ea332dd7373ef7d51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Настроение - что это такое, от чего оно зависит и как на него влиять</t>
+          <t>Мозг - почему его необходимо развивать на протяжении всей жизни</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nastroenie-chto-eto-takoe-ot-chego-ono-zavisit-i-kak-na-nego-vliiat-6030edf3756eeb31f01efe3b</t>
+          <t>Человеческий мозг уникален, он впитывает всё новое, как губка. Все</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Само по себе наше настроение (не больное, а нормальное) - это, в общем</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-pochemu-ego-neobhodimo-razvivat-na-protiajenii-vsei-jizni-6032c4a6756eeb31f0d26a71</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Отношения - как найти «своего» человека и построить счастливые отношения ⠀</t>
+          <t>Настроение - что это такое, от чего оно зависит и как на него влиять</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-kak-naiti-svoego-cheloveka-i-postroit-schastlivye-otnosheniia--602f867affa2d86ae458d81d</t>
+          <t>Само по себе наше настроение (не больное, а нормальное) - это, в общем</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Казалось бы, в эпоху социальных сетей и приложений для знакомств</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nastroenie-chto-eto-takoe-ot-chego-ono-zavisit-i-kak-na-nego-vliiat-6030edf3756eeb31f01efe3b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Желания - как понять, чего мы хотим</t>
+          <t>Отношения - как найти «своего» человека и построить счастливые отношения ⠀</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/jelaniia-kak-poniat-chego-my-hotim-602ea4efffa2d86ae44a60b3</t>
+          <t>Казалось бы, в эпоху социальных сетей и приложений для знакомств</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-kak-naiti-svoego-cheloveka-i-postroit-schastlivye-otnosheniia--602f867affa2d86ae458d81d</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Мозг - как им управлять, чтобы добиться желаемого</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-kak-im-upravliat-chtoby-dobitsia-jelaemogo-602d1bef3ad6ee787c6777a2</t>
+          <t>Желания - как понять, чего мы хотим</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Наш мозг так устроен, если новую информацию не начать внедрять в</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/jelaniia-kak-poniat-chego-my-hotim-602ea4efffa2d86ae44a60b3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Доверие - что это такое и как ему научиться</t>
+          <t>Мозг - как им управлять, чтобы добиться желаемого</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/doverie-chto-eto-takoe-i-kak-emu-nauchitsia-602ba9938e2e533749cdacf8</t>
+          <t>Наш мозг так устроен, если новую информацию не начать внедрять в</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mozg-kak-im-upravliat-chtoby-dobitsia-jelaemogo-602d1bef3ad6ee787c6777a2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Амбиции - как их реализовать</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ambicii-kak-ih-realizovat-602ac70220b7ca228d0e6dee</t>
+          <t>Доверие - что это такое и как ему научиться</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Если вы спросите человека, почему он не пытается добиться успеха в своей работе (не делает то, что может, с тем</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/doverie-chto-eto-takoe-i-kak-emu-nauchitsia-602ba9938e2e533749cdacf8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Перемены - почему мы их боимся и как с этим бороться</t>
+          <t>Амбиции - как их реализовать</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/peremeny-pochemu-my-ih-boimsia-i-kak-s-etim-borotsia-60294041b498705a81dab3cd</t>
+          <t>Если вы спросите человека, почему он не пытается добиться успеха в своей работе (не делает то, что может, с тем</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ambicii-kak-ih-realizovat-602ac70220b7ca228d0e6dee</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Неуверенность - причина её появления и как с этим бороться</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/neuverennost-prichina-ee-poiavleniia-i-kak-s-etim-borotsia-60291bc70454f6146a3eda52</t>
+          <t>Перемены - почему мы их боимся и как с этим бороться</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Как быть уверенным в себе, если боишься всего нового, а больше всего</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/peremeny-pochemu-my-ih-boimsia-i-kak-s-etim-borotsia-60294041b498705a81dab3cd</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Мечта - что мешает и где взять ресурсы</t>
+          <t>Неуверенность - причина её появления и как с этим бороться</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mechta-chto-meshaet-i-gde-vziat-resursy-602822ba241d462d4472d85b</t>
+          <t>Как быть уверенным в себе, если боишься всего нового, а больше всего</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>В нашей жизни есть то, что мы хотим приобрести, и то, от чего мы хотим избавиться. Первое мы обычно</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/neuverennost-prichina-ee-poiavleniia-i-kak-s-etim-borotsia-60291bc70454f6146a3eda52</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Отношения - это работа</t>
+          <t>Мечта - что мешает и где взять ресурсы</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-eto-rabota-6027fd04c219c97e32267a84</t>
+          <t>В нашей жизни есть то, что мы хотим приобрести, и то, от чего мы хотим избавиться. Первое мы обычно</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Наше отношение к любви может быть легкомысленным. 1. Нам может казаться, что любовь – это так</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/mechta-chto-meshaet-i-gde-vziat-resursy-602822ba241d462d4472d85b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Фрирайтинг - что это такое и зачем он нужен</t>
+          <t>Отношения - это работа</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/friraiting-chto-eto-takoe-i-zachem-on-nujen-602669710454f6146a82946b</t>
+          <t>Наше отношение к любви может быть легкомысленным. 1. Нам может казаться, что любовь – это так</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/otnosheniia-eto-rabota-6027fd04c219c97e32267a84</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Прокрастинация – что это такое и как с ней бороться</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/prokrastinaciia--chto-eto-takoe-i-kak-s-nei-borotsia-6026aba1241d462d44608bff</t>
+          <t>Фрирайтинг - что это такое и зачем он нужен</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/friraiting-chto-eto-takoe-i-zachem-on-nujen-602669710454f6146a82946b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Почему необходимо мечтать</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pochemu-neobhodimo-mechtat-60254309fa0bd9159a61070c</t>
+          <t>Прокрастинация – что это такое и как с ней бороться</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Если вы о чем-то мечтаете, у вас есть всё, чтобы это получить. Если это ваше истинное желание, не</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/prokrastinaciia--chto-eto-takoe-i-kak-s-nei-borotsia-6026aba1241d462d44608bff</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Как повысить самооценку</t>
+          <t>Почему необходимо мечтать</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kak-povysit-samoocenku-60257e29fa0bd9159adce879</t>
+          <t>Если вы о чем-то мечтаете, у вас есть всё, чтобы это получить. Если это ваше истинное желание, не</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Самооценки, как некой устойчивой величины, не существует. Мы по-разному думаем о себе в разных</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pochemu-neobhodimo-mechtat-60254309fa0bd9159a61070c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Семь основных шагов, чтобы полюбить свою работу</t>
+          <t>Как повысить самооценку</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/sem-osnovnyh-shagov-chtoby-poliubit-svoiu-rabotu-6023e72853b5a470dc7ab929</t>
+          <t>Самооценки, как некой устойчивой величины, не существует. Мы по-разному думаем о себе в разных</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Успеха в работе можно добиться, только отдав все силы. Надо быть</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kak-povysit-samoocenku-60257e29fa0bd9159adce879</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Два основных принципа, чтобы быть успешным</t>
+          <t>Семь основных шагов, чтобы полюбить свою работу</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/dva-osnovnyh-principa-chtoby-byt-uspeshnym-60229415064ec935186a855f</t>
+          <t>Успеха в работе можно добиться, только отдав все силы. Надо быть</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/sem-osnovnyh-shagov-chtoby-poliubit-svoiu-rabotu-6023e72853b5a470dc7ab929</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Нырнуть в неизвестность с разбега</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nyrnut-v-neizvestnost-s-razbega-6022ea169eeef76a6908abd8</t>
+          <t>Два основных принципа, чтобы быть успешным</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/dva-osnovnyh-principa-chtoby-byt-uspeshnym-60229415064ec935186a855f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Шесть признаков успешного человека</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/shest-priznakov-uspeshnogo-cheloveka-6022aa29064ec935189ed6d4</t>
+          <t>Нырнуть в неизвестность с разбега</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Люди зачастую полагают, что, то, насколько они успешны, зависит от количества заработанных денег. На</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nyrnut-v-neizvestnost-s-razbega-6022ea169eeef76a6908abd8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Счастье быть услышанным и понятым</t>
+          <t>Шесть признаков успешного человека</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/schaste-byt-uslyshannym-i-poniatym-602175a3390eb32b9bfac275</t>
+          <t>"Люди зачастую полагают, что, то, насколько они успешны, зависит от количества заработанных денег. На</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/shest-priznakov-uspeshnogo-cheloveka-6022aa29064ec935189ed6d4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Какими возможностями мы обладаем</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kakimi-vozmojnostiami-my-obladaem-60214dececcec86b33aded5b</t>
+          <t>Счастье быть услышанным и понятым</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/schaste-byt-uslyshannym-i-poniatym-602175a3390eb32b9bfac275</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Три основных принципа в достижении счастья</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-principa-v-dostijenii-schastia-6020398253bb652e6ad2cd2d</t>
+          <t>Какими возможностями мы обладаем</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/kakimi-vozmojnostiami-my-obladaem-60214dececcec86b33aded5b</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Поверь в себя</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pover-v-sebia-60205d34d96a1a50b8d584fa</t>
+          <t>Три основных принципа в достижении счастья</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Как мы думаем о своей жизни, такой она и становится. Если мы думаем, что наша жизнь прекрасна, она действительно становится</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-principa-v-dostijenii-schastia-6020398253bb652e6ad2cd2d</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Три основных правила к душевному спокойствию</t>
+          <t>Поверь в себя</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-pravila-k-dushevnomu-spokoistviiu-601fe03a53bb652e6a1ce0e3</t>
+          <t>Как мы думаем о своей жизни, такой она и становится. Если мы думаем, что наша жизнь прекрасна, она действительно становится</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Преодолеть невроз непросто. Нужно понять, как действовать и куда</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/pover-v-sebia-60205d34d96a1a50b8d584fa</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Переживания: "+" или "-"</t>
+          <t>Три основных правила к душевному спокойствию</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/perejivaniia--ili--601fc4ccd96a1a50b8aea811</t>
+          <t>Преодолеть невроз непросто. Нужно понять, как действовать и куда</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Переживания - это сильная эмоция, которая бывает как с положительным, так и с отрицательным зарядом</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/tri-osnovnyh-pravila-k-dushevnomu-spokoistviiu-601fe03a53bb652e6a1ce0e3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Понимаете ли вы свои эмоции?</t>
+          <t>Переживания: "+" или "-"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ponimaete-li-vy-svoi-emocii-601ed6a05fadcc22a95770fb</t>
+          <t>Переживания - это сильная эмоция, которая бывает как с положительным, так и с отрицательным зарядом</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>У всех есть чувства, но не все их знают и понимают. И в этом проблема. Мы не испытываем эмоций специально</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/perejivaniia--ili--601fc4ccd96a1a50b8aea811</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>За ширмой тревоги</t>
+          <t>Понимаете ли вы свои эмоции?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/za-shirmoi-trevogi-601ec7d7f2a56f0eaa155661</t>
+          <t>У всех есть чувства, но не все их знают и понимают. И в этом проблема. Мы не испытываем эмоций специально</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Из чего состоит тревога? Из неуверенности в себе? Из детства? Давайте разбираться! Тревога бывает разной. Очень сильной и яркой. Мы её</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/ponimaete-li-vy-svoi-emocii-601ed6a05fadcc22a95770fb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Вещи не бывают хорошими или плохими, такими их делает наше отношение к ним</t>
+          <t>За ширмой тревоги</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/vesci-ne-byvaiut-horoshimi-ili-plohimi-takimi-ih-delaet-nashe-otnoshenie-k-nim-601e8790f2a56f0eaa9e0463</t>
+          <t>Из чего состоит тревога? Из неуверенности в себе? Из детства? Давайте разбираться! Тревога бывает разной. Очень сильной и яркой. Мы её</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Все, что мы считаем «трагедиями», «катастрофами», «концом света», по</t>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/za-shirmoi-trevogi-601ec7d7f2a56f0eaa155661</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Вещи не бывают хорошими или плохими, такими их делает наше отношение к ним</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Все, что мы считаем «трагедиями», «катастрофами», «концом света», по</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/vesci-ne-byvaiut-horoshimi-ili-plohimi-takimi-ih-delaet-nashe-otnoshenie-k-nim-601e8790f2a56f0eaa9e0463</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Начни с себя</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Считается, что отношения - это тяжелая работа! На самом деле, ваши отношения зависят от вас. А тяжело вам или нет работать над собой — это</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://zen.yandex.ru/media/id/601d76de40f32972e4d8ce59/nachni-s-sebia-601d9bee86f4e2220810bbad</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Считается, что отношения - это тяжелая работа! На самом деле, ваши отношения зависят от вас. А тяжело вам или нет работать над собой — это</t>
         </is>
       </c>
     </row>
